--- a/biology/Botanique/Salix_sungkianica/Salix_sungkianica.xlsx
+++ b/biology/Botanique/Salix_sungkianica/Salix_sungkianica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Salix sungkianica est une espèce de saule de la famille des Salicaceae, originaire de Chine, décrite par Yi Liang Chou et Skvortsov.
@@ -512,7 +524,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Salix sungkianica f. brevistachys Y.L. Chou ; Tung.</t>
         </is>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Salix sungkianica est un arbuste à l'écorce gris terne qui peut atteindre 6 mètres de haut. Ses rameaux sont vert rougeâtre ou jaunâtre, glabres et minces. Les bourgeons ovoïdes voisinent avec des stipules linéaires de 5 à 7 mm. Les feuilles sont de forme lancéolée ou ovalo-lancéolée, à la bordure dentée ; elles atteignent de 8 à 16 cm de long et 0,8 à 1,6 mm de large. Elles ont un pétiole qui mesure de 1 à 3 mm (parfois 5 mm)
-L'espèce est rencontrée au bord des rivières de Harbin, de la province chinoise de Heilongjiang[2],[3],[4].
+L'espèce est rencontrée au bord des rivières de Harbin, de la province chinoise de Heilongjiang.
 </t>
         </is>
       </c>
